--- a/assets/templates/RS0002-discrete-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-discrete-fan-template.a205.xlsx
@@ -11,8 +11,9 @@
     <sheet name="fan_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="assembly_components" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="performance_map" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="performance_map_cooling" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="performance_map_standby" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="coil_system_representation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -91,172 +92,142 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
-      <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Manufacturer name</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Model number of the indoor unit</t>
+        <t>Model number</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
-        <t>Type of compressor</t>
+        <t>AHRI Certified Reference Number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
     <comment authorId="0" ref="B24" shapeId="0">
       <text>
+        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B28" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
       <text>
         <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
-      <text>
-        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
-      <text>
-        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B31" shapeId="0">
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Total cooling capacity as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B37" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>AHRI Certified Reference Number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
-        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B38" shapeId="0">
-      <text>
-        <t>Total cooling capacity as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B39" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B40" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A43" shapeId="0">
+    <comment authorId="0" ref="A39" shapeId="0">
       <text>
         <t>Base schema for ASHRAE 205 representations</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B45" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate leaving the indoor coil used to scale the flow ratios in the PerformanceMap</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B46" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A47" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A48" shapeId="0">
-      <text>
-        <t>Data group describing standby performance</t>
+    <comment authorId="0" ref="A41" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
       </text>
     </comment>
   </commentList>
@@ -271,95 +242,130 @@
   <commentList>
     <comment authorId="0" ref="B4" shapeId="0">
       <text>
-        <t>Representation specification version</t>
+        <t>ASHRAE 205 standard version</t>
       </text>
     </comment>
     <comment authorId="0" ref="B5" shapeId="0">
       <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
         <t>Representation specification identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B6" shapeId="0">
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
       <text>
         <t>Unique equipment identifier</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B7" shapeId="0">
+    <comment authorId="0" ref="B9" shapeId="0">
       <text>
         <t>Date of publication</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B8" shapeId="0">
-      <text>
-        <t>Free-form version identifier for this representation</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B9" shapeId="0">
-      <text>
-        <t>Free-form description of equipment (suitable for display)</t>
-      </text>
-    </comment>
     <comment authorId="0" ref="B10" shapeId="0">
       <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
         <t>Free-form identification of the source of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B11" shapeId="0">
+    <comment authorId="0" ref="B12" shapeId="0">
       <text>
         <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B12" shapeId="0">
+    <comment authorId="0" ref="B13" shapeId="0">
       <text>
         <t>Additional Information</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B17" shapeId="0">
+    <comment authorId="0" ref="B18" shapeId="0">
       <text>
         <t>Name of the assembly/unit manufacturer</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B18" shapeId="0">
+    <comment authorId="0" ref="B19" shapeId="0">
       <text>
         <t>Model number of the assembly / unit</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>Assembly includes a motor</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
+    <comment authorId="0" ref="B21" shapeId="0">
       <text>
         <t>Fan assembly is enclosed</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
+    <comment authorId="0" ref="B23" shapeId="0">
       <text>
         <t>Motor and impeller are directly coupled</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
+    <comment authorId="0" ref="B24" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
+    <comment authorId="0" ref="B27" shapeId="0">
       <text>
         <t>Nominal air flow rate for fan assembly</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
+    <comment authorId="0" ref="B28" shapeId="0">
       <text>
         <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B29" shapeId="0">
       <text>
         <t>Fraction of motor heat into the air stream</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B29" shapeId="0">
+    <comment authorId="0" ref="B30" shapeId="0">
+      <text>
+        <t>Maximum power draw of the fan motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
+        <t>Maximum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A33" shapeId="0">
+      <text>
+        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Volumetric air flow rate through an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Static pressure drop of an air distribution system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Assembly power draw when fan is not operating</t>
       </text>
@@ -429,59 +435,99 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Dry bulb temperature of the air entering the outdoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Wet bulb temperature of the air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Dry bulb temperature of the air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Ratio of the volumetric air flow rate over the indoor coil to the nominal volumetric air flow rate</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Ambient absolute air pressure</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Total heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Sensible heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Gross power draw (of the outdoor unit)</t>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Model number of the outdoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Name of the indoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Model number of the indoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Type of refrigerant</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Type of compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A27" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A28" shapeId="0">
+      <text>
+        <t>Data group describing standby performance</t>
       </text>
     </comment>
   </commentList>
@@ -489,6 +535,71 @@
 </file>
 
 <file path=xl/comments/comment6.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Relative humidity of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D3" shapeId="0">
+      <text>
+        <t>Mass flow rate of air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E3" shapeId="0">
+      <text>
+        <t>Index indicating the relative order of the compressor speed/stage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3" shapeId="0">
+      <text>
+        <t>Ambient absolute air pressure</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G3" shapeId="0">
+      <text>
+        <t>Total heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3" shapeId="0">
+      <text>
+        <t>Sensible heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -807,7 +918,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E48"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -868,12 +979,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t>standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -885,12 +991,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>RS_ID</t>
+          <t>schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0002</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -902,7 +1008,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>ID</t>
+          <t>RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0002</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -914,7 +1025,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>data_timestamp</t>
+          <t>description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -926,31 +1037,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t>ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t>data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t>data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>disclaimer</t>
+          <t>data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -958,35 +1081,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t>disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t>notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
+          <t>ASHRAE205.RS_instance.RS0002</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -994,27 +1117,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                outdoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                outdoor_unit_model_number</t>
+          <t xml:space="preserve">                manufacturer</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1026,15 +1145,19 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                indoor_unit_manufacturer</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="n"/>
+          <t xml:space="preserve">                model_number</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                indoor_unit_model_number</t>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -1042,31 +1165,48 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                refrigerant_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t xml:space="preserve">                certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                compressor_type</t>
-        </is>
-      </c>
-      <c r="E22" s="3" t="n"/>
+          <t xml:space="preserve">                test_standard_year</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                manufacturer_data_source_version</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">                SEER</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -1078,7 +1218,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">                EER</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1090,7 +1235,12 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">                capacity</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1102,29 +1252,20 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                SEER</t>
+          <t xml:space="preserve">                rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="n"/>
     </row>
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
+          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1134,39 +1275,29 @@
       </c>
     </row>
     <row r="29">
-      <c r="B29" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                capacity</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="n"/>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="n"/>
+          <t xml:space="preserve">                certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">                test_standard_year</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1176,17 +1307,26 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
-        </is>
-      </c>
-      <c r="E32" s="3" t="n"/>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                manufacturer_data_source_version</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">                IEER</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E33" s="3" t="inlineStr">
@@ -1198,7 +1338,12 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">                EER</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1210,7 +1355,12 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">                capacity</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E35" s="3" t="inlineStr">
@@ -1222,29 +1372,20 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                IEER</t>
+          <t xml:space="preserve">                rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="n"/>
     </row>
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
+          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1254,14 +1395,9 @@
       </c>
     </row>
     <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                capacity</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1271,14 +1407,14 @@
       </c>
     </row>
     <row r="39">
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>$fan_representation</t>
         </is>
       </c>
       <c r="E39" s="3" t="n"/>
@@ -1286,7 +1422,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">            fan_position</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1298,7 +1434,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>$coil_system_representation</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1307,124 +1448,21 @@
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="B42" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            compressor_control_method</t>
-        </is>
-      </c>
-      <c r="E42" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>$fan_representation</t>
-        </is>
-      </c>
-      <c r="E43" s="3" t="n"/>
-    </row>
-    <row r="44">
-      <c r="B44" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            fan_position</t>
-        </is>
-      </c>
-      <c r="E44" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="B45" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>m3/s</t>
-        </is>
-      </c>
-      <c r="E45" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="B46" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            cycling_degradation_coefficient</t>
-        </is>
-      </c>
-      <c r="E46" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>$performance_map_cooling</t>
-        </is>
-      </c>
-      <c r="E47" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E48" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
-      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
       <formula1>"2008,2017"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
       <formula1>"2007,2015,IP_2019"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C42" type="list">
-      <formula1>"STAGED,DYNAMIC"</formula1>
-    </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C44" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1439,7 +1477,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E32"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1496,12 +1534,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>0.1.0</t>
+          <t xml:space="preserve">                    standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -1513,12 +1546,12 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                    schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>RS0003</t>
+          <t>0.1.0</t>
         </is>
       </c>
       <c r="E5" s="3" t="inlineStr">
@@ -1530,7 +1563,12 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                    RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0003</t>
         </is>
       </c>
       <c r="E6" s="3" t="inlineStr">
@@ -1542,7 +1580,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                    description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1554,31 +1592,43 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
-        </is>
-      </c>
-      <c r="E8" s="3" t="n"/>
+          <t xml:space="preserve">                    ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
-        </is>
-      </c>
-      <c r="E9" s="3" t="n"/>
+          <t xml:space="preserve">                    data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
-        </is>
-      </c>
-      <c r="E10" s="3" t="n"/>
+          <t xml:space="preserve">                    data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                    data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -1586,35 +1636,35 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
+          <t xml:space="preserve">                    disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
           <t xml:space="preserve">                    notes</t>
         </is>
       </c>
-      <c r="E12" s="3" t="n"/>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
-        </is>
-      </c>
-      <c r="E13" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E13" s="3" t="n"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
-        </is>
-      </c>
-      <c r="E14" s="3" t="n"/>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1622,27 +1672,23 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.product_information</t>
         </is>
       </c>
-      <c r="E16" s="3" t="n"/>
-    </row>
-    <row r="17">
-      <c r="B17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    manufacturer</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E17" s="3" t="n"/>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    model_number</t>
+          <t xml:space="preserve">                                    manufacturer</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1654,7 +1700,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    has_motor</t>
+          <t xml:space="preserve">                                    model_number</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1666,7 +1712,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    enclosed</t>
+          <t xml:space="preserve">                                    has_motor</t>
         </is>
       </c>
       <c r="E20" s="3" t="inlineStr">
@@ -1678,15 +1724,19 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    impeller_type</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="n"/>
+          <t xml:space="preserve">                                    enclosed</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    direct_drive_impeller</t>
+          <t xml:space="preserve">                                    impeller_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
@@ -1694,20 +1744,15 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
+          <t xml:space="preserve">                                    direct_drive_impeller</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
           <t xml:space="preserve">                                    number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E24" s="3" t="n"/>
@@ -1715,24 +1760,20 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>m3/s</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1744,12 +1785,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
+          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1761,12 +1802,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                motor_heat_fraction</t>
+          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1778,12 +1819,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                standby_power</t>
+          <t xml:space="preserve">                                motor_heat_fraction</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1795,12 +1836,12 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                performance_map_type</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>DISCRETE</t>
+          <t xml:space="preserve">                                maximum_power</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1812,44 +1853,167 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
+          <t xml:space="preserve">                                maximum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E31" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="B32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                minimum_impeller_speed</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>rev/s</t>
+        </is>
+      </c>
+      <c r="E32" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="n"/>
+    </row>
+    <row r="34">
+      <c r="B34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E34" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="B35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Pa</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="B36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                standby_power</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                performance_map_type</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="E37" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" t="inlineStr">
+        <is>
           <t xml:space="preserve">                                speed_control_type</t>
         </is>
       </c>
-      <c r="E31" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+      <c r="E38" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
         <is>
           <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="C39" t="inlineStr">
         <is>
           <t>$performance_map</t>
         </is>
       </c>
-      <c r="E32" s="3" t="inlineStr">
+      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="4">
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C5" type="list">
-      <formula1>"RS0001,RS0002,RS0003"</formula1>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1991,6 +2155,366 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
+  <dimension ref="A1:E28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0004</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="n"/>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    refrigerant_type</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="n"/>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                    compressor_type</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="n"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                compressor_control_method</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>$performance_map_standby</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+      <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+      <formula1>"STAGED,DYNAMIC"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2002,7 +2526,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2026,7 +2550,7 @@
       </c>
       <c r="B3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_entering_wet_bulb_temperature</t>
+          <t>indoor_coil_entering_relative_humidity</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
@@ -2036,7 +2560,7 @@
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>indoor_coil_volumetric_flow_ratio</t>
+          <t>indoor_coil_air_mass_flow_rate</t>
         </is>
       </c>
       <c r="E3" s="5" t="inlineStr">
@@ -2073,17 +2597,17 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
           <t>K</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>K</t>
-        </is>
-      </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>kg/s</t>
         </is>
       </c>
       <c r="E4" s="4" t="n"/>
@@ -2114,7 +2638,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2131,7 +2655,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0002-discrete-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-discrete-fan-template.a205.xlsx
@@ -10,10 +10,12 @@
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="fan_representation" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="assembly_components" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="performance_map" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="coil_system_representation" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="performance_map_cooling" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="performance_map_standby" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="motor_representation" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="drive_representation" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="performance_map" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DX_system_representation" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="performance_map_cooling" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="performance_map_standby" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -140,84 +142,89 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Manufacturer name</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Manufacturer name</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
         <t>Model number</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B21" shapeId="0">
+    <comment authorId="0" ref="B20" shapeId="0">
       <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B23" shapeId="0">
       <text>
+        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B27" shapeId="0">
+      <text>
+        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B29" shapeId="0">
+      <text>
+        <t>AHRI Certified Reference Number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B31" shapeId="0">
+      <text>
         <t>Version of the software used to generate the AHRI rating and the performance maps</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
-      <text>
-        <t>Seasonal Energy Efficiency Ratio as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B25" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
-      <text>
-        <t>Total cooling capacity (A) as defined by AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B27" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the fan used in the AHRI 210/240 calculation of SEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B28" shapeId="0">
+    <comment authorId="0" ref="B32" shapeId="0">
+      <text>
+        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B33" shapeId="0">
+      <text>
+        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B34" shapeId="0">
+      <text>
+        <t>Total cooling capacity as defined by AHRI 340/360</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B35" shapeId="0">
+      <text>
+        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B36" shapeId="0">
       <text>
         <t>Whether this rating can be reproduced using the performance data in the representation</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>AHRI Certified Reference Number</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B32" shapeId="0">
-      <text>
-        <t>Version of the software used to generate the AHRI rating and the performance maps</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B33" shapeId="0">
-      <text>
-        <t>Integrated Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Energy Efficiency Ratio as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
-        <t>Total cooling capacity as defined by AHRI 340/360</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Power per air flow rate of the indoor fan used in the AHRI 340/360 calculation of IEER and EER</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B37" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
+    <comment authorId="0" ref="B38" shapeId="0">
+      <text>
+        <t>Continuous unit power draw regardless of whether the fan or DX system are operating.</t>
       </text>
     </comment>
     <comment authorId="0" ref="A39" shapeId="0">
@@ -290,84 +297,79 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the assembly/unit manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the assembly/unit manufacturer</t>
+        <t>Model number of the assembly / unit</t>
       </text>
     </comment>
     <comment authorId="0" ref="B19" shapeId="0">
       <text>
-        <t>Model number of the assembly / unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B20" shapeId="0">
-      <text>
-        <t>Assembly includes a motor</t>
+        <t>Fan assembly is enclosed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Fan assembly is enclosed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Motor and impeller are directly coupled</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B24" shapeId="0">
+        <t>The fan impeller is driven by a belt and pulley system</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
       <text>
         <t>Number of impellers included in the fan assembly</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Nominal air flow rate for fan assembly</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B26" shapeId="0">
+      <text>
+        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B27" shapeId="0">
       <text>
-        <t>Nominal air flow rate for fan assembly</t>
+        <t>Fraction of efficiency losses added as heat transferred into the air stream</t>
       </text>
     </comment>
     <comment authorId="0" ref="B28" shapeId="0">
       <text>
-        <t>Additional static pressure drop if cooling coil component is collecting condensate</t>
+        <t>Maximum impeller rotational speed</t>
       </text>
     </comment>
     <comment authorId="0" ref="B29" shapeId="0">
       <text>
-        <t>Fraction of motor heat into the air stream</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B30" shapeId="0">
-      <text>
-        <t>Maximum power draw of the fan motor</t>
+        <t>Minimum impeller rotational speed</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A30" shapeId="0">
+      <text>
+        <t>A description of the stability area for system selection</t>
       </text>
     </comment>
     <comment authorId="0" ref="B31" shapeId="0">
       <text>
-        <t>Maximum impeller rotational speed</t>
+        <t>Volumetric air flow rate through an air distribution system</t>
       </text>
     </comment>
     <comment authorId="0" ref="B32" shapeId="0">
       <text>
-        <t>Minimum impeller rotational speed</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A33" shapeId="0">
-      <text>
-        <t xml:space="preserve">A description of the maximum system curve for system selection </t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B34" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through an air distribution system</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B35" shapeId="0">
-      <text>
         <t>Static pressure drop of an air distribution system</t>
       </text>
     </comment>
-    <comment authorId="0" ref="B36" shapeId="0">
-      <text>
-        <t>Assembly power draw when fan is not operating</t>
+    <comment authorId="0" ref="A35" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A36" shapeId="0">
+      <text>
+        <t>Data group describing fan performance in terms of speed setting, static pressure, air flow, and power</t>
       </text>
     </comment>
   </commentList>
@@ -400,29 +402,99 @@
     <author>ASHRAE 205</author>
   </authors>
   <commentList>
-    <comment authorId="0" ref="A2" shapeId="0">
-      <text>
-        <t>Data group describing grid variables for discrete fan performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A3" shapeId="0">
-      <text>
-        <t>Number indicating discrete speed of fan impeller</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B3" shapeId="0">
-      <text>
-        <t>Static pressure across fan assembly at dry coil conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="C3" shapeId="0">
-      <text>
-        <t>Volumetric air flow rate through fan assembly</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="D3" shapeId="0">
-      <text>
-        <t>Power input to fan assembly</t>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Input voltage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Input frequency</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Number of poles</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B23" shapeId="0">
+      <text>
+        <t>Maximum operational input power to the motor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B24" shapeId="0">
+      <text>
+        <t>Power draw when motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A25" shapeId="0">
+      <text>
+        <t>Base schema for ASHRAE 205 representations</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing motor performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -485,49 +557,29 @@
         <t>Additional Information</t>
       </text>
     </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the manufacturer</t>
+      </text>
+    </comment>
     <comment authorId="0" ref="B18" shapeId="0">
       <text>
-        <t>Name of the outdoor unit manufacturer</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B19" shapeId="0">
-      <text>
-        <t>Model number of the outdoor unit</t>
+        <t>Model number</t>
       </text>
     </comment>
     <comment authorId="0" ref="B20" shapeId="0">
       <text>
-        <t>Name of the indoor unit manufacturer</t>
+        <t>Maximum power draw of the drive</t>
       </text>
     </comment>
     <comment authorId="0" ref="B21" shapeId="0">
       <text>
-        <t>Model number of the indoor unit</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B22" shapeId="0">
-      <text>
-        <t>Type of refrigerant</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B23" shapeId="0">
-      <text>
-        <t>Type of compressor</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="B26" shapeId="0">
-      <text>
-        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A27" shapeId="0">
-      <text>
-        <t>Data group describing cooling performance over a range of conditions</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="A28" shapeId="0">
-      <text>
-        <t>Data group describing standby performance</t>
+        <t>Power draw when the motor is not operating</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A23" shapeId="0">
+      <text>
+        <t>Data group describing drive performance when operating</t>
       </text>
     </comment>
   </commentList>
@@ -542,57 +594,32 @@
   <commentList>
     <comment authorId="0" ref="A2" shapeId="0">
       <text>
-        <t>Data group defining the grid variables for cooling performance</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G2" shapeId="0">
-      <text>
-        <t>Data group defining the lookup variables for cooling performance</t>
+        <t>Data group describing grid variables for discrete fan performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B2" shapeId="0">
+      <text>
+        <t>Data group describing lookup variables for motor performance</t>
       </text>
     </comment>
     <comment authorId="0" ref="A3" shapeId="0">
       <text>
-        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+        <t>Number indicating discrete speed of fan impeller</t>
       </text>
     </comment>
     <comment authorId="0" ref="B3" shapeId="0">
       <text>
-        <t>Relative humidity of the air entering the indoor coil</t>
+        <t>Static pressure across fan assembly at dry coil conditions</t>
       </text>
     </comment>
     <comment authorId="0" ref="C3" shapeId="0">
       <text>
-        <t>Dry bulb temperature of the air entering the indoor coil</t>
+        <t>Volumetric air flow rate through fan assembly</t>
       </text>
     </comment>
     <comment authorId="0" ref="D3" shapeId="0">
       <text>
-        <t>Mass flow rate of air entering the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="E3" shapeId="0">
-      <text>
-        <t>Index indicating the relative order of the compressor speed/stage</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="F3" shapeId="0">
-      <text>
-        <t>Ambient absolute air pressure</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="G3" shapeId="0">
-      <text>
-        <t>Total heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="H3" shapeId="0">
-      <text>
-        <t>Sensible heat removed by the indoor coil</t>
-      </text>
-    </comment>
-    <comment authorId="0" ref="I3" shapeId="0">
-      <text>
-        <t>Gross power draw (of the outdoor unit)</t>
+        <t>Power input to fan assembly</t>
       </text>
     </comment>
   </commentList>
@@ -600,6 +627,176 @@
 </file>
 
 <file path=xl/comments/comment7.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="B4" shapeId="0">
+      <text>
+        <t>ASHRAE 205 standard version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B5" shapeId="0">
+      <text>
+        <t>ASHRAE 205 schema version</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B6" shapeId="0">
+      <text>
+        <t>Representation specification identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B7" shapeId="0">
+      <text>
+        <t>Free-form description of equipment (suitable for display)</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B8" shapeId="0">
+      <text>
+        <t>Unique equipment identifier</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B9" shapeId="0">
+      <text>
+        <t>Date of publication</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B10" shapeId="0">
+      <text>
+        <t>Integer version identifier for the data in the representation</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B11" shapeId="0">
+      <text>
+        <t>Free-form identification of the source of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B12" shapeId="0">
+      <text>
+        <t>Free-form characterization of accuracy, limitations, and applicability of this data</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B13" shapeId="0">
+      <text>
+        <t>Additional Information</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B17" shapeId="0">
+      <text>
+        <t>Name of the outdoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B18" shapeId="0">
+      <text>
+        <t>Model number of the outdoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B19" shapeId="0">
+      <text>
+        <t>Name of the indoor unit manufacturer</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B20" shapeId="0">
+      <text>
+        <t>Model number of the indoor unit</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B21" shapeId="0">
+      <text>
+        <t>Type of refrigerant</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B22" shapeId="0">
+      <text>
+        <t>Type of compressor</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B25" shapeId="0">
+      <text>
+        <t>Cycling degradation coefficient (CD) as described in AHRI 210/240</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A26" shapeId="0">
+      <text>
+        <t>Data group describing cooling performance over a range of conditions</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A27" shapeId="0">
+      <text>
+        <t>Data group describing standby performance</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment8.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ASHRAE 205</author>
+  </authors>
+  <commentList>
+    <comment authorId="0" ref="A2" shapeId="0">
+      <text>
+        <t>Data group defining the grid variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G2" shapeId="0">
+      <text>
+        <t>Data group defining the lookup variables for cooling performance</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="A3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the outdoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="B3" shapeId="0">
+      <text>
+        <t>Relative humidity of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="C3" shapeId="0">
+      <text>
+        <t>Dry bulb temperature of the air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="D3" shapeId="0">
+      <text>
+        <t>Mass flow rate of air entering the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="E3" shapeId="0">
+      <text>
+        <t>Index indicating the relative order of the compressor speed/stage</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="F3" shapeId="0">
+      <text>
+        <t>Ambient absolute air pressure</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="G3" shapeId="0">
+      <text>
+        <t>Total heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="H3" shapeId="0">
+      <text>
+        <t>Sensible heat removed by the indoor coil</t>
+      </text>
+    </comment>
+    <comment authorId="0" ref="I3" shapeId="0">
+      <text>
+        <t>Gross power draw (of the outdoor unit)</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments/comment9.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>ASHRAE 205</author>
@@ -1109,7 +1306,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002</t>
+          <t>ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1117,23 +1314,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.description</t>
+          <t>ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer</t>
+          <t xml:space="preserve">            model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1143,29 +1344,29 @@
       </c>
     </row>
     <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_210_240</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_210_240</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="n"/>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">            test_standard_year</t>
         </is>
       </c>
       <c r="E21" s="3" t="inlineStr">
@@ -1177,7 +1378,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">            manufacturer_data_source_version</t>
         </is>
       </c>
       <c r="E22" s="3" t="inlineStr">
@@ -1189,7 +1390,12 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">            SEER</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E23" s="3" t="inlineStr">
@@ -1201,7 +1407,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t xml:space="preserve">                SEER</t>
+          <t xml:space="preserve">            EER</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1218,12 +1424,12 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
+          <t xml:space="preserve">            capacity</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -1235,57 +1441,52 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t xml:space="preserve">                capacity</t>
+          <t xml:space="preserve">            rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E26" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
     </row>
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E27" s="3" t="n"/>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="E27" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="28">
-      <c r="B28" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.description.rating_AHRI_340_360</t>
+        </is>
+      </c>
+      <c r="E28" s="3" t="n"/>
     </row>
     <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.description.rating_AHRI_340_360</t>
-        </is>
-      </c>
-      <c r="E29" s="3" t="n"/>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            certified_reference_number</t>
+        </is>
+      </c>
+      <c r="E29" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t xml:space="preserve">                certified_reference_number</t>
+          <t xml:space="preserve">            test_standard_year</t>
         </is>
       </c>
       <c r="E30" s="3" t="inlineStr">
@@ -1297,7 +1498,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                test_standard_year</t>
+          <t xml:space="preserve">            manufacturer_data_source_version</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1309,7 +1510,12 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                manufacturer_data_source_version</t>
+          <t xml:space="preserve">            IEER</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1321,7 +1527,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t xml:space="preserve">                IEER</t>
+          <t xml:space="preserve">            EER</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1338,12 +1544,12 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                EER</t>
+          <t xml:space="preserve">            capacity</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Btu/W-h</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1355,37 +1561,32 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t xml:space="preserve">                capacity</t>
+          <t xml:space="preserve">            rating_fan_power_per_flow</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W/(m3/s)</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t xml:space="preserve">                rating_fan_power_per_flow</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>W/(m3/s)</t>
-        </is>
-      </c>
-      <c r="E36" s="3" t="n"/>
+          <t xml:space="preserve">            rating_reproducible_from_performance_data</t>
+        </is>
+      </c>
+      <c r="E36" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                rating_reproducible_from_performance_data</t>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance</t>
         </is>
       </c>
       <c r="E37" s="3" t="inlineStr">
@@ -1395,9 +1596,14 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance</t>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        standby_power</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>W</t>
         </is>
       </c>
       <c r="E38" s="3" t="inlineStr">
@@ -1409,7 +1615,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1422,7 +1628,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t xml:space="preserve">            fan_position</t>
+          <t xml:space="preserve">        fan_position</t>
         </is>
       </c>
       <c r="E40" s="3" t="inlineStr">
@@ -1434,12 +1640,12 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>$coil_system_representation</t>
+          <t>$DX_system_representation</t>
         </is>
       </c>
       <c r="E41" s="3" t="inlineStr">
@@ -1454,12 +1660,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C21" type="list">
       <formula1>"2008,2017"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C31" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C30" type="list">
       <formula1>"2007,2015,IP_2019"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C40" type="list">
@@ -1477,7 +1683,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1492,7 +1698,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205</t>
         </is>
       </c>
     </row>
@@ -1526,7 +1732,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205</t>
         </is>
       </c>
       <c r="E3" s="3" t="n"/>
@@ -1534,7 +1740,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    standard_version</t>
+          <t xml:space="preserve">                standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -1546,7 +1752,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -1563,7 +1769,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1580,7 +1786,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -1592,7 +1798,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                ID</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -1604,7 +1810,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -1616,7 +1822,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -1628,7 +1834,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -1636,7 +1842,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -1644,7 +1850,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -1652,7 +1858,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -1664,7 +1870,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -1672,23 +1878,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    manufacturer</t>
+          <t xml:space="preserve">                            model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -1700,7 +1910,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    model_number</t>
+          <t xml:space="preserve">                            is_enclosed</t>
         </is>
       </c>
       <c r="E19" s="3" t="inlineStr">
@@ -1712,68 +1922,78 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    has_motor</t>
-        </is>
-      </c>
-      <c r="E20" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            impeller_type</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="n"/>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    enclosed</t>
-        </is>
-      </c>
-      <c r="E21" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            has_belt_drive</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    impeller_type</t>
+          <t xml:space="preserve">                            number_of_impellers</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    direct_drive_impeller</t>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.assembly_components</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$assembly_components</t>
         </is>
       </c>
       <c r="E23" s="3" t="n"/>
     </row>
     <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    number_of_impellers</t>
-        </is>
-      </c>
-      <c r="E24" s="3" t="n"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>$assembly_components</t>
-        </is>
-      </c>
-      <c r="E25" s="3" t="n"/>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        nominal_volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>m3/s</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance</t>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        wet_coil_pressure_drop</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -1785,12 +2005,12 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                nominal_volumetric_air_flow_rate</t>
+          <t xml:space="preserve">                        heat_loss_fraction</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>m3/s</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
@@ -1802,12 +2022,12 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                wet_coil_pressure_drop</t>
+          <t xml:space="preserve">                        maximum_impeller_speed</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Pa</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E28" s="3" t="inlineStr">
@@ -1819,12 +2039,12 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                motor_heat_fraction</t>
+          <t xml:space="preserve">                        minimum_impeller_speed</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>rev/s</t>
         </is>
       </c>
       <c r="E29" s="3" t="inlineStr">
@@ -1834,31 +2054,27 @@
       </c>
     </row>
     <row r="30">
-      <c r="B30" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                maximum_power</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>W</t>
-        </is>
-      </c>
-      <c r="E30" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.stability_curve</t>
+        </is>
+      </c>
+      <c r="E30" s="3" t="n"/>
     </row>
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                maximum_impeller_speed</t>
+          <t xml:space="preserve">                            volumetric_air_flow_rate</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>$volumetric_air_flow_rate</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>m3/s</t>
         </is>
       </c>
       <c r="E31" s="3" t="inlineStr">
@@ -1870,12 +2086,17 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                minimum_impeller_speed</t>
+          <t xml:space="preserve">                            static_pressure_difference</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>$static_pressure_difference</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>rev/s</t>
+          <t>Pa</t>
         </is>
       </c>
       <c r="E32" s="3" t="inlineStr">
@@ -1885,27 +2106,26 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.maximum_system_curve</t>
-        </is>
-      </c>
-      <c r="E33" s="3" t="n"/>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        performance_map_type</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>DISCRETE</t>
+        </is>
+      </c>
+      <c r="E33" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>$volumetric_air_flow_rate</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>m3/s</t>
+          <t xml:space="preserve">                        speed_control_type</t>
         </is>
       </c>
       <c r="E34" s="3" t="inlineStr">
@@ -1915,85 +2135,30 @@
       </c>
     </row>
     <row r="35">
-      <c r="B35" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    static_pressure_difference</t>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>$static_pressure_difference</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Pa</t>
-        </is>
-      </c>
-      <c r="E35" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>$motor_representation</t>
+        </is>
+      </c>
+      <c r="E35" s="3" t="n"/>
     </row>
     <row r="36">
-      <c r="B36" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                standby_power</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>W</t>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
         </is>
       </c>
       <c r="E36" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                performance_map_type</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>DISCRETE</t>
-        </is>
-      </c>
-      <c r="E37" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                speed_control_type</t>
-        </is>
-      </c>
-      <c r="E38" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>$performance_map</t>
-        </is>
-      </c>
-      <c r="E39" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -2005,15 +2170,15 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C20" type="list">
       <formula1>"CENTRIFUGAL_FORWARD_CURVED,CENTRIFUGAL_BACKWARD_CURVED,CENTRIFUGAL_AIR_FOIL,AXIAL,PROPELLER"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C37" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C33" type="list">
       <formula1>"DISCRETE,CONTINUOUS"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C38" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C34" type="list">
       <formula1>"FIXED,VARIABLE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2039,7 +2204,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.description.assembly_components.component_type</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.description.assembly_components.component_type</t>
         </is>
       </c>
     </row>
@@ -2067,6 +2232,686 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0005</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="B19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            input_voltage</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            input_frequency</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Hz</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                            number_of_poles</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="n"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                        standby_power</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E24" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>$drive_representation</t>
+        </is>
+      </c>
+      <c r="E25" s="3" t="n"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E26" s="3" t="n"/>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col customWidth="1" max="2" min="2" width="50"/>
+    <col customWidth="1" max="3" min="3" width="31"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Data Group</t>
+        </is>
+      </c>
+      <c r="B2" s="2" t="inlineStr">
+        <is>
+          <t>Data Element</t>
+        </is>
+      </c>
+      <c r="C2" s="2" t="inlineStr">
+        <is>
+          <t>Value</t>
+        </is>
+      </c>
+      <c r="D2" s="2" t="inlineStr">
+        <is>
+          <t>Units</t>
+        </is>
+      </c>
+      <c r="E2" s="2" t="inlineStr">
+        <is>
+          <t>Required</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205</t>
+        </is>
+      </c>
+      <c r="E3" s="3" t="n"/>
+    </row>
+    <row r="4">
+      <c r="B4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                standard_version</t>
+        </is>
+      </c>
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                schema_version</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>0.1.0</t>
+        </is>
+      </c>
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="B6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                RS_ID</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>RS0006</t>
+        </is>
+      </c>
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="B7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                description</t>
+        </is>
+      </c>
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                ID</t>
+        </is>
+      </c>
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="B9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_timestamp</t>
+        </is>
+      </c>
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_version</t>
+        </is>
+      </c>
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                data_source</t>
+        </is>
+      </c>
+      <c r="E11" s="3" t="n"/>
+    </row>
+    <row r="12">
+      <c r="B12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                disclaimer</t>
+        </is>
+      </c>
+      <c r="E12" s="3" t="n"/>
+    </row>
+    <row r="13">
+      <c r="B13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                notes</t>
+        </is>
+      </c>
+      <c r="E13" s="3" t="n"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance</t>
+        </is>
+      </c>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description</t>
+        </is>
+      </c>
+      <c r="E15" s="3" t="n"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.description.product_information</t>
+        </is>
+      </c>
+      <c r="E16" s="3" t="n"/>
+    </row>
+    <row r="17">
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                            manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="B18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                            model_number</t>
+        </is>
+      </c>
+      <c r="E18" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="B20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        maximum_power</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E20" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="B21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        standby_power</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E21" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="B22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                                                        cooling_method</t>
+        </is>
+      </c>
+      <c r="E22" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>$performance_map</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C4" type="list">
+      <formula1>"PPR2"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
+      <formula1>"PASSIVE_COOLED,ACTIVE_AIR_COOLED,ACTIVE_LIQUID_COOLED"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <legacyDrawing r:id="anysvml"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2083,7 +2928,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.fan_representation.ASHRAE205.RS_instance.RS0003.performance.performance_map.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.fan_representation.ASHRAE205.RS_instance.performance.motor_representation.ASHRAE205.RS_instance.performance.drive_representation.ASHRAE205.RS_instance.performance.performance_map.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2091,6 +2936,11 @@
       <c r="A2" s="4" t="inlineStr">
         <is>
           <t>grid_variables</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>lookup_variables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -2149,13 +2999,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2170,7 +3020,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205</t>
         </is>
       </c>
     </row>
@@ -2204,7 +3054,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205</t>
         </is>
       </c>
       <c r="E3" s="3" t="n"/>
@@ -2212,7 +3062,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    standard_version</t>
+          <t xml:space="preserve">                standard_version</t>
         </is>
       </c>
       <c r="E4" s="3" t="inlineStr">
@@ -2224,7 +3074,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    schema_version</t>
+          <t xml:space="preserve">                schema_version</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -2241,7 +3091,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    RS_ID</t>
+          <t xml:space="preserve">                RS_ID</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -2258,7 +3108,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    description</t>
+          <t xml:space="preserve">                description</t>
         </is>
       </c>
       <c r="E7" s="3" t="inlineStr">
@@ -2270,7 +3120,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    ID</t>
+          <t xml:space="preserve">                ID</t>
         </is>
       </c>
       <c r="E8" s="3" t="inlineStr">
@@ -2282,7 +3132,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_timestamp</t>
+          <t xml:space="preserve">                data_timestamp</t>
         </is>
       </c>
       <c r="E9" s="3" t="inlineStr">
@@ -2294,7 +3144,7 @@
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_version</t>
+          <t xml:space="preserve">                data_version</t>
         </is>
       </c>
       <c r="E10" s="3" t="inlineStr">
@@ -2306,7 +3156,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    data_source</t>
+          <t xml:space="preserve">                data_source</t>
         </is>
       </c>
       <c r="E11" s="3" t="n"/>
@@ -2314,7 +3164,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    disclaimer</t>
+          <t xml:space="preserve">                disclaimer</t>
         </is>
       </c>
       <c r="E12" s="3" t="n"/>
@@ -2322,7 +3172,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    notes</t>
+          <t xml:space="preserve">                notes</t>
         </is>
       </c>
       <c r="E13" s="3" t="n"/>
@@ -2330,7 +3180,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance</t>
         </is>
       </c>
       <c r="E14" s="3" t="inlineStr">
@@ -2342,7 +3192,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description</t>
         </is>
       </c>
       <c r="E15" s="3" t="n"/>
@@ -2350,23 +3200,27 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.description.product_information</t>
         </is>
       </c>
       <c r="E16" s="3" t="n"/>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.description.product_information</t>
-        </is>
-      </c>
-      <c r="E17" s="3" t="n"/>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            outdoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E17" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            outdoor_unit_model_number</t>
         </is>
       </c>
       <c r="E18" s="3" t="inlineStr">
@@ -2378,19 +3232,15 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    outdoor_unit_model_number</t>
-        </is>
-      </c>
-      <c r="E19" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t xml:space="preserve">                            indoor_unit_manufacturer</t>
+        </is>
+      </c>
+      <c r="E19" s="3" t="n"/>
     </row>
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_manufacturer</t>
+          <t xml:space="preserve">                            indoor_unit_model_number</t>
         </is>
       </c>
       <c r="E20" s="3" t="n"/>
@@ -2398,7 +3248,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    indoor_unit_model_number</t>
+          <t xml:space="preserve">                            refrigerant_type</t>
         </is>
       </c>
       <c r="E21" s="3" t="n"/>
@@ -2406,23 +3256,27 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                    refrigerant_type</t>
+          <t xml:space="preserve">                            compressor_type</t>
         </is>
       </c>
       <c r="E22" s="3" t="n"/>
     </row>
     <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                    compressor_type</t>
-        </is>
-      </c>
-      <c r="E23" s="3" t="n"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance</t>
+        </is>
+      </c>
+      <c r="E23" s="3" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance</t>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                        compressor_control_method</t>
         </is>
       </c>
       <c r="E24" s="3" t="inlineStr">
@@ -2434,7 +3288,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t xml:space="preserve">                                compressor_control_method</t>
+          <t xml:space="preserve">                        cycling_degradation_coefficient</t>
         </is>
       </c>
       <c r="E25" s="3" t="inlineStr">
@@ -2444,9 +3298,14 @@
       </c>
     </row>
     <row r="26">
-      <c r="B26" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                                cycling_degradation_coefficient</t>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>$performance_map_cooling</t>
         </is>
       </c>
       <c r="E26" s="3" t="inlineStr">
@@ -2458,32 +3317,15 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>$performance_map_cooling</t>
+          <t>$performance_map_standby</t>
         </is>
       </c>
       <c r="E27" s="3" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>$performance_map_standby</t>
-        </is>
-      </c>
-      <c r="E28" s="3" t="inlineStr">
         <is>
           <t>✓</t>
         </is>
@@ -2495,12 +3337,12 @@
       <formula1>"PPR2"</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C6" type="list">
-      <formula1>"RS0001,RS0002,RS0003,RS0004"</formula1>
+      <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C23" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C22" type="list">
       <formula1>"RECIPROCATING,SCREW,CENTRIFUGAL,ROTARY,SCROLL"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C25" type="list">
+    <dataValidation allowBlank="1" showErrorMessage="1" showInputMessage="1" sqref="C24" type="list">
       <formula1>"STAGED,DYNAMIC"</formula1>
     </dataValidation>
   </dataValidations>
@@ -2509,7 +3351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2526,7 +3368,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_cooling.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_cooling.grid_variables</t>
         </is>
       </c>
     </row>
@@ -2638,7 +3480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2655,7 +3497,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>ASHRAE205.RS_instance.RS0002.performance.coil_system_representation.ASHRAE205.RS_instance.RS0004.performance.performance_map_standby.grid_variables</t>
+          <t>ASHRAE205.RS_instance.performance.DX_system_representation.ASHRAE205.RS_instance.performance.performance_map_standby.grid_variables</t>
         </is>
       </c>
     </row>

--- a/assets/templates/RS0002-discrete-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-discrete-fan-template.a205.xlsx
@@ -1927,7 +1927,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3088,7 +3088,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3928,7 +3928,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5773,7 +5773,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -6972,7 +6972,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7469,7 +7469,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.1.0</t>
+          <t>0.2.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>

--- a/assets/templates/RS0002-discrete-fan-template.a205.xlsx
+++ b/assets/templates/RS0002-discrete-fan-template.a205.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="RS0002" sheetId="1" state="visible" r:id="rId1"/>
     <sheet name="part_load_points" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="fan_representation" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="indoor_fan_representation" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="assembly_components" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="standard_air_volumetric_flow_ra" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="static_pressure_difference" sheetId="6" state="visible" r:id="rId6"/>
@@ -365,122 +365,152 @@
     </comment>
     <comment ref="B30" authorId="0" shapeId="0">
       <text>
+        <t>Low stage net total cooling capacity (at 'G' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling capacity (at 'I' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B32" authorId="0" shapeId="0">
+      <text>
         <t>Full stage net total cooling power (at 'A' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B31" authorId="0" shapeId="0">
+    <comment ref="B33" authorId="0" shapeId="0">
       <text>
         <t>Full stage net total cooling power (at 'B' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B32" authorId="0" shapeId="0">
+    <comment ref="B34" authorId="0" shapeId="0">
       <text>
         <t>Low stage net total cooling power (at 'B' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B33" authorId="0" shapeId="0">
+    <comment ref="B35" authorId="0" shapeId="0">
       <text>
         <t>Low stage net total cooling power (at 'F' operating conditions)</t>
       </text>
     </comment>
-    <comment ref="B34" authorId="0" shapeId="0">
+    <comment ref="B36" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling power (at 'G' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B37" authorId="0" shapeId="0">
+      <text>
+        <t>Low stage net total cooling power (at 'I' operating conditions)</t>
+      </text>
+    </comment>
+    <comment ref="B38" authorId="0" shapeId="0">
       <text>
         <t>Power of the indoor fan at full load</t>
       </text>
     </comment>
-    <comment ref="B35" authorId="0" shapeId="0">
+    <comment ref="B39" authorId="0" shapeId="0">
       <text>
         <t>Standard air volumetric rate of the indoor fan at full load</t>
       </text>
     </comment>
-    <comment ref="B36" authorId="0" shapeId="0">
+    <comment ref="B40" authorId="0" shapeId="0">
       <text>
         <t>Power of the indoor fan at low stage</t>
       </text>
     </comment>
-    <comment ref="B37" authorId="0" shapeId="0">
+    <comment ref="B41" authorId="0" shapeId="0">
       <text>
         <t>Standard air volumetric rate of the indoor fan at low stage</t>
       </text>
     </comment>
-    <comment ref="B38" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A39" authorId="0" shapeId="0">
+    <comment ref="B42" authorId="0" shapeId="0">
+      <text>
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B43" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A44" authorId="0" shapeId="0">
       <text>
         <t>Data group containing information relevant to products rated under AHRI 340/360</t>
       </text>
     </comment>
-    <comment ref="B40" authorId="0" shapeId="0">
+    <comment ref="B45" authorId="0" shapeId="0">
       <text>
         <t>AHRI Certified Reference Number</t>
       </text>
     </comment>
-    <comment ref="B41" authorId="0" shapeId="0">
+    <comment ref="B46" authorId="0" shapeId="0">
       <text>
         <t>Name and version of the AHRI test standard</t>
       </text>
     </comment>
-    <comment ref="B42" authorId="0" shapeId="0">
+    <comment ref="B47" authorId="0" shapeId="0">
       <text>
         <t>Source of this rating data</t>
       </text>
     </comment>
-    <comment ref="B43" authorId="0" shapeId="0">
+    <comment ref="B48" authorId="0" shapeId="0">
       <text>
         <t>Type of capacity control</t>
       </text>
     </comment>
-    <comment ref="B44" authorId="0" shapeId="0">
+    <comment ref="B49" authorId="0" shapeId="0">
       <text>
         <t>Integrated Energy Efficiency Ratio</t>
       </text>
     </comment>
-    <comment ref="B45" authorId="0" shapeId="0">
+    <comment ref="B50" authorId="0" shapeId="0">
       <text>
         <t>Energy Efficiency Ratio at Standard Rating Conditions</t>
       </text>
     </comment>
-    <comment ref="B46" authorId="0" shapeId="0">
+    <comment ref="B51" authorId="0" shapeId="0">
       <text>
         <t>Net total cooling capacity at Standard Rating Conditions</t>
       </text>
     </comment>
-    <comment ref="A47" authorId="0" shapeId="0">
+    <comment ref="A52" authorId="0" shapeId="0">
       <text>
         <t>Four part load rating points</t>
       </text>
     </comment>
-    <comment ref="B48" authorId="0" shapeId="0">
-      <text>
-        <t>Whether this rating can be reproduced using the performance data in the representation</t>
-      </text>
-    </comment>
-    <comment ref="A49" authorId="0" shapeId="0">
+    <comment ref="B53" authorId="0" shapeId="0">
+      <text>
+        <t>Whether this rating can be recalculated using the performance data in the representation</t>
+      </text>
+    </comment>
+    <comment ref="B54" authorId="0" shapeId="0">
+      <text>
+        <t>An explanation of the value for `rating_recalculatable_from_performance_data`</t>
+      </text>
+    </comment>
+    <comment ref="A55" authorId="0" shapeId="0">
       <text>
         <t>Data group containing performance information</t>
       </text>
     </comment>
-    <comment ref="B50" authorId="0" shapeId="0">
+    <comment ref="B56" authorId="0" shapeId="0">
       <text>
         <t>Continuous unit power draw regardless of fan or DX system operation</t>
       </text>
     </comment>
-    <comment ref="A51" authorId="0" shapeId="0">
+    <comment ref="A57" authorId="0" shapeId="0">
       <text>
         <t>The corresponding Standard 205 fan assembly representation</t>
       </text>
     </comment>
-    <comment ref="B52" authorId="0" shapeId="0">
+    <comment ref="B58" authorId="0" shapeId="0">
       <text>
         <t>Position of the fan relative to the cooling coil</t>
       </text>
     </comment>
-    <comment ref="A53" authorId="0" shapeId="0">
-      <text>
-        <t>The corresponding Standard 205 direct expansion coil system representation</t>
+    <comment ref="A59" authorId="0" shapeId="0">
+      <text>
+        <t>The corresponding Standard 205 direct expansion system representation</t>
       </text>
     </comment>
   </commentList>
@@ -675,7 +705,7 @@
     </comment>
     <comment ref="B24" authorId="0" shapeId="0">
       <text>
-        <t>Cycling degradation coefficient (C&lt;sub&gt;D&lt;/sub&gt;) as described in AHRI 210/240</t>
+        <t>Cycling degradation coefficient (C~D~) as described in AHRI 210/240</t>
       </text>
     </comment>
     <comment ref="A25" authorId="0" shapeId="0">
@@ -1726,7 +1756,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ53"/>
+  <dimension ref="A1:AZ59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1927,7 +1957,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -2262,13 +2292,13 @@
       <c r="A30" s="4" t="n"/>
       <c r="B30" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_a_full_power</t>
+          <t xml:space="preserve">    cooling_g_low_capacity</t>
         </is>
       </c>
       <c r="C30" s="5" t="n"/>
       <c r="D30" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E30" s="6" t="n"/>
@@ -2277,13 +2307,13 @@
       <c r="A31" s="4" t="n"/>
       <c r="B31" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_b_full_power</t>
+          <t xml:space="preserve">    cooling_i_low_capacity</t>
         </is>
       </c>
       <c r="C31" s="5" t="n"/>
       <c r="D31" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/h</t>
         </is>
       </c>
       <c r="E31" s="6" t="n"/>
@@ -2292,7 +2322,7 @@
       <c r="A32" s="4" t="n"/>
       <c r="B32" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_b_low_power</t>
+          <t xml:space="preserve">    cooling_a_full_power</t>
         </is>
       </c>
       <c r="C32" s="5" t="n"/>
@@ -2307,7 +2337,7 @@
       <c r="A33" s="4" t="n"/>
       <c r="B33" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_f_low_power</t>
+          <t xml:space="preserve">    cooling_b_full_power</t>
         </is>
       </c>
       <c r="C33" s="5" t="n"/>
@@ -2322,7 +2352,7 @@
       <c r="A34" s="4" t="n"/>
       <c r="B34" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_full_fan_power</t>
+          <t xml:space="preserve">    cooling_b_low_power</t>
         </is>
       </c>
       <c r="C34" s="5" t="n"/>
@@ -2331,36 +2361,28 @@
           <t>W</t>
         </is>
       </c>
-      <c r="E34" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E34" s="6" t="n"/>
     </row>
     <row r="35">
       <c r="A35" s="4" t="n"/>
       <c r="B35" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_full_air_volumetric_flow_rate</t>
+          <t xml:space="preserve">    cooling_f_low_power</t>
         </is>
       </c>
       <c r="C35" s="5" t="n"/>
       <c r="D35" s="4" t="inlineStr">
         <is>
-          <t>cfm</t>
-        </is>
-      </c>
-      <c r="E35" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E35" s="6" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="4" t="n"/>
       <c r="B36" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_low_fan_power</t>
+          <t xml:space="preserve">    cooling_g_low_power</t>
         </is>
       </c>
       <c r="C36" s="5" t="n"/>
@@ -2375,13 +2397,13 @@
       <c r="A37" s="4" t="n"/>
       <c r="B37" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_low_air_volumetric_flow_rate</t>
+          <t xml:space="preserve">    cooling_i_low_power</t>
         </is>
       </c>
       <c r="C37" s="5" t="n"/>
       <c r="D37" s="4" t="inlineStr">
         <is>
-          <t>cfm</t>
+          <t>W</t>
         </is>
       </c>
       <c r="E37" s="6" t="n"/>
@@ -2390,11 +2412,15 @@
       <c r="A38" s="4" t="n"/>
       <c r="B38" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    cooling_full_fan_power</t>
         </is>
       </c>
       <c r="C38" s="5" t="n"/>
-      <c r="D38" s="4" t="n"/>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
       <c r="E38" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2402,104 +2428,100 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_340_360</t>
-        </is>
-      </c>
-      <c r="B39" s="4" t="n"/>
+      <c r="A39" s="4" t="n"/>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cooling_full_air_volumetric_flow_rate</t>
+        </is>
+      </c>
       <c r="C39" s="5" t="n"/>
-      <c r="D39" s="4" t="n"/>
-      <c r="E39" s="6" t="n"/>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>cfm</t>
+        </is>
+      </c>
+      <c r="E39" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="4" t="n"/>
       <c r="B40" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    certified_reference_number</t>
+          <t xml:space="preserve">    cooling_low_fan_power</t>
         </is>
       </c>
       <c r="C40" s="5" t="n"/>
-      <c r="D40" s="4" t="n"/>
-      <c r="E40" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E40" s="6" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="4" t="n"/>
       <c r="B41" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    test_standard_year</t>
+          <t xml:space="preserve">    cooling_low_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="C41" s="5" t="n"/>
-      <c r="D41" s="4" t="n"/>
-      <c r="E41" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>cfm</t>
+        </is>
+      </c>
+      <c r="E41" s="6" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="4" t="n"/>
       <c r="B42" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_source</t>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
         </is>
       </c>
       <c r="C42" s="5" t="n"/>
       <c r="D42" s="4" t="n"/>
-      <c r="E42" s="6" t="n"/>
+      <c r="E42" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="4" t="n"/>
       <c r="B43" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    capacity_control_type</t>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
         </is>
       </c>
       <c r="C43" s="5" t="n"/>
       <c r="D43" s="4" t="n"/>
-      <c r="E43" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="E43" s="6" t="n"/>
     </row>
     <row r="44">
-      <c r="A44" s="4" t="n"/>
-      <c r="B44" s="4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ieer</t>
-        </is>
-      </c>
+      <c r="A44" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_340_360</t>
+        </is>
+      </c>
+      <c r="B44" s="4" t="n"/>
       <c r="C44" s="5" t="n"/>
-      <c r="D44" s="4" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
-      <c r="E44" s="6" t="inlineStr">
-        <is>
-          <t>✓</t>
-        </is>
-      </c>
+      <c r="D44" s="4" t="n"/>
+      <c r="E44" s="6" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="4" t="n"/>
       <c r="B45" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    eer</t>
+          <t xml:space="preserve">    certified_reference_number</t>
         </is>
       </c>
       <c r="C45" s="5" t="n"/>
-      <c r="D45" s="4" t="inlineStr">
-        <is>
-          <t>Btu/W-h</t>
-        </is>
-      </c>
+      <c r="D45" s="4" t="n"/>
       <c r="E45" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2510,15 +2532,11 @@
       <c r="A46" s="4" t="n"/>
       <c r="B46" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cooling_capacity</t>
+          <t xml:space="preserve">    test_standard_year</t>
         </is>
       </c>
       <c r="C46" s="5" t="n"/>
-      <c r="D46" s="4" t="inlineStr">
-        <is>
-          <t>Btu/h</t>
-        </is>
-      </c>
+      <c r="D46" s="4" t="n"/>
       <c r="E46" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2526,17 +2544,13 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="4" t="inlineStr">
-        <is>
-          <t>description.rating_ahri_340_360.part_load_points</t>
-        </is>
-      </c>
-      <c r="B47" s="4" t="n"/>
-      <c r="C47" s="5" t="inlineStr">
-        <is>
-          <t>$part_load_points</t>
-        </is>
-      </c>
+      <c r="A47" s="4" t="n"/>
+      <c r="B47" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_source</t>
+        </is>
+      </c>
+      <c r="C47" s="5" t="n"/>
       <c r="D47" s="4" t="n"/>
       <c r="E47" s="6" t="n"/>
     </row>
@@ -2544,7 +2558,7 @@
       <c r="A48" s="4" t="n"/>
       <c r="B48" s="4" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rating_reproducible_from_performance_data</t>
+          <t xml:space="preserve">    capacity_control_type</t>
         </is>
       </c>
       <c r="C48" s="5" t="n"/>
@@ -2556,14 +2570,18 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="4" t="inlineStr">
-        <is>
-          <t>performance</t>
-        </is>
-      </c>
-      <c r="B49" s="4" t="n"/>
+      <c r="A49" s="4" t="n"/>
+      <c r="B49" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    ieer</t>
+        </is>
+      </c>
       <c r="C49" s="5" t="n"/>
-      <c r="D49" s="4" t="n"/>
+      <c r="D49" s="4" t="inlineStr">
+        <is>
+          <t>Btu/W-h</t>
+        </is>
+      </c>
       <c r="E49" s="6" t="inlineStr">
         <is>
           <t>✓</t>
@@ -2574,13 +2592,13 @@
       <c r="A50" s="4" t="n"/>
       <c r="B50" s="4" t="inlineStr">
         <is>
-          <t>standby_power</t>
+          <t xml:space="preserve">    eer</t>
         </is>
       </c>
       <c r="C50" s="5" t="n"/>
       <c r="D50" s="4" t="inlineStr">
         <is>
-          <t>W</t>
+          <t>Btu/W-h</t>
         </is>
       </c>
       <c r="E50" s="6" t="inlineStr">
@@ -2590,45 +2608,139 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="4" t="inlineStr">
-        <is>
-          <t>performance.fan_representation</t>
-        </is>
-      </c>
-      <c r="B51" s="4" t="n"/>
-      <c r="C51" s="5" t="inlineStr">
-        <is>
-          <t>$fan_representation</t>
-        </is>
-      </c>
-      <c r="D51" s="4" t="n"/>
-      <c r="E51" s="6" t="n"/>
+      <c r="A51" s="4" t="n"/>
+      <c r="B51" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    cooling_capacity</t>
+        </is>
+      </c>
+      <c r="C51" s="5" t="n"/>
+      <c r="D51" s="4" t="inlineStr">
+        <is>
+          <t>Btu/h</t>
+        </is>
+      </c>
+      <c r="E51" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
     </row>
     <row r="52">
-      <c r="A52" s="4" t="n"/>
-      <c r="B52" s="4" t="inlineStr">
-        <is>
-          <t>fan_position</t>
-        </is>
-      </c>
-      <c r="C52" s="5" t="n"/>
+      <c r="A52" s="4" t="inlineStr">
+        <is>
+          <t>description.rating_ahri_340_360.part_load_points</t>
+        </is>
+      </c>
+      <c r="B52" s="4" t="n"/>
+      <c r="C52" s="5" t="inlineStr">
+        <is>
+          <t>$part_load_points</t>
+        </is>
+      </c>
       <c r="D52" s="4" t="n"/>
       <c r="E52" s="6" t="n"/>
     </row>
     <row r="53">
-      <c r="A53" s="4" t="inlineStr">
+      <c r="A53" s="4" t="n"/>
+      <c r="B53" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_from_performance_data</t>
+        </is>
+      </c>
+      <c r="C53" s="5" t="n"/>
+      <c r="D53" s="4" t="n"/>
+      <c r="E53" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="4" t="n"/>
+      <c r="B54" s="4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rating_recalculatable_explanation</t>
+        </is>
+      </c>
+      <c r="C54" s="5" t="n"/>
+      <c r="D54" s="4" t="n"/>
+      <c r="E54" s="6" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="4" t="inlineStr">
+        <is>
+          <t>performance</t>
+        </is>
+      </c>
+      <c r="B55" s="4" t="n"/>
+      <c r="C55" s="5" t="n"/>
+      <c r="D55" s="4" t="n"/>
+      <c r="E55" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="4" t="n"/>
+      <c r="B56" s="4" t="inlineStr">
+        <is>
+          <t>standby_power</t>
+        </is>
+      </c>
+      <c r="C56" s="5" t="n"/>
+      <c r="D56" s="4" t="inlineStr">
+        <is>
+          <t>W</t>
+        </is>
+      </c>
+      <c r="E56" s="6" t="inlineStr">
+        <is>
+          <t>✓</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="4" t="inlineStr">
+        <is>
+          <t>performance.indoor_fan_representation</t>
+        </is>
+      </c>
+      <c r="B57" s="4" t="n"/>
+      <c r="C57" s="5" t="inlineStr">
+        <is>
+          <t>$indoor_fan_representation</t>
+        </is>
+      </c>
+      <c r="D57" s="4" t="n"/>
+      <c r="E57" s="6" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="4" t="n"/>
+      <c r="B58" s="4" t="inlineStr">
+        <is>
+          <t>fan_position</t>
+        </is>
+      </c>
+      <c r="C58" s="5" t="n"/>
+      <c r="D58" s="4" t="n"/>
+      <c r="E58" s="6" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="4" t="inlineStr">
         <is>
           <t>performance.dx_system_representation</t>
         </is>
       </c>
-      <c r="B53" s="4" t="n"/>
-      <c r="C53" s="5" t="inlineStr">
+      <c r="B59" s="4" t="n"/>
+      <c r="C59" s="5" t="inlineStr">
         <is>
           <t>$dx_system_representation</t>
         </is>
       </c>
-      <c r="D53" s="4" t="n"/>
-      <c r="E53" s="6" t="n"/>
+      <c r="D59" s="4" t="n"/>
+      <c r="E59" s="6" t="n"/>
     </row>
   </sheetData>
   <dataValidations count="8">
@@ -2636,31 +2748,31 @@
       <formula1>"RS0001,RS0002,RS0003,RS0004,RS0005,RS0006,RS0007"</formula1>
     </dataValidation>
     <dataValidation sqref="C20" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
-      <formula1>"IP_2008,IP_2017"</formula1>
+      <formula1>"IP_2008,IP_2017,IP_2023"</formula1>
     </dataValidation>
     <dataValidation sqref="C22" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"SINGLE_STAGE,TWO_STAGE,VARIABLE_STAGE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C38" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C42" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C41" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C46" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"IP_2007,IP_2015,IP_2019"</formula1>
     </dataValidation>
-    <dataValidation sqref="C43" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C48" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"FIXED_CAPACITY,STAGED_CAPACITY,PROPORTIONAL_CAPACITY"</formula1>
     </dataValidation>
-    <dataValidation sqref="C48" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C53" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation sqref="C52" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
+    <dataValidation sqref="C58" showErrorMessage="1" showInputMessage="1" allowBlank="1" type="list">
       <formula1>"BLOW_THROUGH,DRAW_THROUGH"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="C47" r:id="rId1"/>
-    <hyperlink ref="C51" r:id="rId2"/>
-    <hyperlink ref="C53" r:id="rId3"/>
+    <hyperlink ref="C52" r:id="rId1"/>
+    <hyperlink ref="C57" r:id="rId2"/>
+    <hyperlink ref="C59" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <legacyDrawing r:id="anysvml"/>
@@ -2738,7 +2850,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -2952,7 +3064,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3037,7 +3149,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -3088,7 +3200,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -3194,7 +3306,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -3205,7 +3317,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -3249,7 +3361,7 @@
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance</t>
         </is>
       </c>
       <c r="B19" s="4" t="n"/>
@@ -3283,7 +3395,7 @@
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B21" s="4" t="n"/>
@@ -3387,7 +3499,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3563,7 +3675,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -3928,7 +4040,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5637,7 +5749,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation</t>
+          <t>performance.indoor_fan_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5722,7 +5834,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.metadata</t>
+          <t>performance.indoor_fan_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -5773,7 +5885,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -5879,7 +5991,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.description</t>
+          <t>performance.indoor_fan_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -5890,7 +6002,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -5945,7 +6057,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -5994,7 +6106,7 @@
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.assembly_components</t>
+          <t>performance.indoor_fan_representation.performance.assembly_components</t>
         </is>
       </c>
       <c r="B23" s="4" t="n"/>
@@ -6066,7 +6178,7 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve</t>
         </is>
       </c>
       <c r="B27" s="4" t="n"/>
@@ -6157,7 +6269,7 @@
     <row r="32">
       <c r="A32" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation</t>
         </is>
       </c>
       <c r="B32" s="4" t="n"/>
@@ -6172,7 +6284,7 @@
     <row r="33">
       <c r="A33" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.mechanical_drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.mechanical_drive_representation</t>
         </is>
       </c>
       <c r="B33" s="4" t="n"/>
@@ -6187,7 +6299,7 @@
     <row r="34">
       <c r="A34" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B34" s="4" t="n"/>
@@ -6305,7 +6417,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.assembly_components</t>
+          <t>performance.indoor_fan_representation.performance.assembly_components</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6516,7 +6628,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve.standard_air_volumetric_flow_rate</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve.standard_air_volumetric_flow_rate</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6676,7 +6788,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.stability_curve.static_pressure_difference</t>
+          <t>performance.indoor_fan_representation.performance.stability_curve.static_pressure_difference</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6836,7 +6948,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -6921,7 +7033,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -6972,7 +7084,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7078,7 +7190,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -7089,7 +7201,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -7152,7 +7264,7 @@
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance</t>
         </is>
       </c>
       <c r="B20" s="4" t="n"/>
@@ -7220,7 +7332,7 @@
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation</t>
         </is>
       </c>
       <c r="B24" s="4" t="n"/>
@@ -7235,7 +7347,7 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B25" s="4" t="n"/>
@@ -7333,7 +7445,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -7418,7 +7530,7 @@
     <row r="3">
       <c r="A3" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.metadata</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.metadata</t>
         </is>
       </c>
       <c r="B3" s="4" t="n"/>
@@ -7469,7 +7581,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>0.2.0</t>
+          <t>1.0.0</t>
         </is>
       </c>
       <c r="D6" s="4" t="n"/>
@@ -7575,7 +7687,7 @@
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.description</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.description</t>
         </is>
       </c>
       <c r="B14" s="4" t="n"/>
@@ -7586,7 +7698,7 @@
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.description.product_information</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.description.product_information</t>
         </is>
       </c>
       <c r="B15" s="4" t="n"/>
@@ -7619,7 +7731,7 @@
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance</t>
         </is>
       </c>
       <c r="B18" s="4" t="n"/>
@@ -7687,7 +7799,7 @@
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B22" s="4" t="n"/>
@@ -7791,7 +7903,7 @@
     <row r="1">
       <c r="A1" s="2" t="inlineStr">
         <is>
-          <t>performance.fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
+          <t>performance.indoor_fan_representation.performance.motor_representation.performance.drive_representation.performance.performance_map</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
